--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>876474.3233069921</v>
+        <v>920335.8205792797</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484444</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7352882.469223784</v>
+        <v>7371821.864529168</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>111.2544958819868</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>267.7559403999795</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>8.129390960577833</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>245.5665272640102</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>57.05312420364051</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>337.9591959089686</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1063,13 +1063,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>90.30617524481245</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>54.14790879701572</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,7 +1133,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>56.81975187488277</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1145,10 +1145,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1196,10 +1196,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>150.3256848869542</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.06330181640134</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1300,16 +1300,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,13 +1351,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454846</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>161.4258646586674</v>
+        <v>161.4258646586661</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>186.7535668023728</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225666</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>18.2277202765949</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>136.1921297287216</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1774,16 +1774,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513621</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1819,10 +1819,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>161.4258646586671</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>90.9796478308906</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.3431845617052</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225661</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>154.025442045437</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>101.0430753545945</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225737</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2479,7 +2479,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>61.23284287475805</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2719,19 +2719,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>134.8238954239898</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>90.06571353858878</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3004,7 +3004,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930767003</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>136.0564930767001</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>136.0564930766999</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>108.1177056177444</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3481,7 +3481,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3664,7 +3664,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3718,7 +3718,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>61.23284287475857</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>120.4898091149242</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>139.9514671241871</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>135.4170480006341</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4141,10 +4141,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>112.1821023581624</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4153,7 +4153,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>628.8817772575625</v>
+        <v>1669.891467141196</v>
       </c>
       <c r="C2" t="n">
-        <v>200.3001029948308</v>
+        <v>1635.789398365023</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>1199.879613539468</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>766.1048686977628</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>338.2374391069705</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>338.2374391069705</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797686</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756281</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693174</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693174</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>2371.712353693174</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>2371.712353693174</v>
       </c>
       <c r="W2" t="n">
-        <v>1074.529126782698</v>
+        <v>1966.856899104207</v>
       </c>
       <c r="X2" t="n">
-        <v>1059.427067402413</v>
+        <v>1696.396353245642</v>
       </c>
       <c r="Y2" t="n">
-        <v>651.1409437020662</v>
+        <v>1692.1506335857</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397427</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064434</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>962.2874523635909</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>789.7257408468158</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>789.7257408468158</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>619.967737097553</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>443.2606830593092</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018674</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148766</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>368.2355322066957</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>786.4454139746567</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1245.92928115557</v>
       </c>
       <c r="N4" t="n">
-        <v>1292.259348259376</v>
+        <v>1688.188084313214</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.857333538996</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="R4" t="n">
-        <v>1688.971924059632</v>
+        <v>2433.946406214709</v>
       </c>
       <c r="S4" t="n">
-        <v>1688.971924059632</v>
+        <v>2433.946406214709</v>
       </c>
       <c r="T4" t="n">
-        <v>1688.971924059632</v>
+        <v>2433.946406214709</v>
       </c>
       <c r="U4" t="n">
-        <v>1688.971924059632</v>
+        <v>2185.899408978335</v>
       </c>
       <c r="V4" t="n">
-        <v>1688.971924059632</v>
+        <v>1898.943900848766</v>
       </c>
       <c r="W4" t="n">
-        <v>1688.971924059632</v>
+        <v>1626.917496435057</v>
       </c>
       <c r="X4" t="n">
-        <v>1443.580169393044</v>
+        <v>1381.52574176847</v>
       </c>
       <c r="Y4" t="n">
-        <v>1216.160498707152</v>
+        <v>1154.106071082578</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>951.5866093689378</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C5" t="n">
-        <v>917.4845405927651</v>
+        <v>859.8975998488716</v>
       </c>
       <c r="D5" t="n">
-        <v>488.9028663300335</v>
+        <v>828.0282190637201</v>
       </c>
       <c r="E5" t="n">
-        <v>459.1685255287327</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>993.1935548536694</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X5" t="n">
-        <v>978.0914954733842</v>
+        <v>1728.585362810299</v>
       </c>
       <c r="Y5" t="n">
-        <v>973.8457758134416</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>936.2947751752459</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>763.7330636584709</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D7" t="n">
-        <v>597.8550708599936</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E7" t="n">
-        <v>428.0970671107308</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1410.227921950848</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1355.533064580125</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1355.533064580125</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>1128.113393894233</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>988.093968811529</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C8" t="n">
-        <v>930.7002800490211</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
-        <v>494.7904952234657</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E8" t="n">
-        <v>61.01575038176083</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>37.18872483137262</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137262</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137262</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114305</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>472.0266229114305</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>472.0266229114305</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>472.0266229114305</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>472.0266229114305</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>927.0793242105242</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873481</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172575</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377069</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1418.639258956379</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1414.393539296437</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230017</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897023</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842762</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842762</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543888</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543888</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>544.9696435230278</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>372.4079320062527</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>206.5299392077754</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>36.77193545851263</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>36.77193545851263</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851263</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851263</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232025</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943381</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>816.3199569622991</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>816.3199569622991</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1258.578760119944</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1670.403998061299</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061299</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925631</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1679.355404223628</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1679.355404223628</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1400.922403476733</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1113.966895347163</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>841.9404909334551</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="X10" t="n">
-        <v>596.5487362668675</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>596.5487362668675</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168569</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351992</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526436</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E11" t="n">
         <v>1215.548181578287</v>
@@ -5033,34 +5033,34 @@
         <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111519</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>96.73597668111519</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>96.73597668111519</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1186.925458503959</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5069,22 +5069,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429653</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363479</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774513</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353823</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653477</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580468</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412718</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D13" t="n">
         <v>608.7923094427941</v>
@@ -5188,16 +5188,16 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583914</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.156417541231</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2446.098318867742</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243222</v>
+        <v>1880.709809991278</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1608.683405577569</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162926</v>
+        <v>1363.291650910982</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1135.87198022509</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847305</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>516.9624360939383</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047172022</v>
       </c>
       <c r="H14" t="n">
         <v>97.15276605397518</v>
@@ -5282,22 +5282,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940406</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510713</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344109</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302703</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5321,7 +5321,7 @@
         <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>806.2298140987277</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776222</v>
+        <v>633.668102581953</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>467.7901097834757</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284814</v>
+        <v>298.032106034213</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
         <v>96.73597668111519</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2112.450585778171</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>2112.450585778171</v>
+        <v>1742.886262583903</v>
       </c>
       <c r="W16" t="n">
-        <v>1840.424181364463</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.032426697876</v>
+        <v>1225.468103503607</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011984</v>
+        <v>998.0484328177149</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526436</v>
       </c>
       <c r="E17" t="n">
         <v>1215.548181578287</v>
@@ -5504,13 +5504,13 @@
         <v>787.6807519874951</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
         <v>531.9906641340331</v>
@@ -5525,16 +5525,16 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5543,22 +5543,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5595,19 +5595,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.2298140987278</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6681025819528</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D19" t="n">
-        <v>467.7901097834755</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
-        <v>298.0321060342127</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>121.3250519959689</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.156417541231</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583903</v>
+        <v>1883.888462243222</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503607</v>
+        <v>1366.470303162926</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177149</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2336.308741984729</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C20" t="n">
-        <v>1898.166269168152</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D20" t="n">
-        <v>1462.256484342597</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E20" t="n">
-        <v>1028.481739500892</v>
+        <v>1215.548181578288</v>
       </c>
       <c r="F20" t="n">
-        <v>600.6143099100998</v>
+        <v>787.6807519874958</v>
       </c>
       <c r="G20" t="n">
-        <v>199.2164785333636</v>
+        <v>386.2829206107597</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397516</v>
+        <v>97.15276605397594</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>3292.83610851071</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>3292.83610851071</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.83610851071</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344106</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302701</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4836.798834055758</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4616.731606928796</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U20" t="n">
-        <v>4357.509304245813</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V20" t="n">
-        <v>3994.892354179639</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W20" t="n">
-        <v>3590.036899590673</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X20" t="n">
-        <v>3170.894436169983</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2762.608312469637</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580465</v>
+        <v>944.0533615061025</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412714</v>
+        <v>771.4916499893275</v>
       </c>
       <c r="D22" t="n">
-        <v>608.792309442794</v>
+        <v>605.6136571908501</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>435.8556534415873</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552875</v>
+        <v>259.1485994033435</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.15641754123</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119685</v>
+        <v>2446.098318867741</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.843970372791</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243221</v>
+        <v>1880.709809991277</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829513</v>
+        <v>1608.683405577569</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162925</v>
+        <v>1363.291650910981</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>1135.87198022509</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1077.292364523333</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>904.7306530065582</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674087</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2013.948813008508</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W25" t="n">
-        <v>1741.9224085948</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1496.530653928212</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1269.11098324232</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>306.120802776629</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>982.155475112751</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>809.5937635959759</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>643.7157707974986</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>643.7157707974986</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>467.0087167592548</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.155475112751</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6467,10 +6467,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1017.756527079656</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>845.1948155628806</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008509</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.966900465231</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1209.575145798643</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6710,16 +6710,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477105</v>
+        <v>1090.187678435287</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>917.6259669185117</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>751.7479741200343</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>581.9899703707716</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>405.2829163325279</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>239.6916413583556</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6859,7 +6859,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
         <v>881.8088617745661</v>
@@ -6889,19 +6889,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>2026.844126920462</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1509.425967840166</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1282.006297154274</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,28 +7172,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>842.8792965674087</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674087</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755404</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008509</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1952.097456569359</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1680.07105215565</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1434.679297489063</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7418,7 +7418,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423627</v>
@@ -7448,7 +7448,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
@@ -7549,16 +7549,16 @@
         <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F43" t="n">
         <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
         <v>190.9207894961043</v>
@@ -7591,16 +7591,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2437.972203577713</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2159.539202830818</v>
       </c>
       <c r="V43" t="n">
         <v>1872.583694701249</v>
@@ -7649,25 +7649,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L44" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M44" t="n">
-        <v>3007.131363532227</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N44" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
         <v>5113.04201353898</v>
@@ -7691,7 +7691,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1004.611946844417</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C46" t="n">
-        <v>832.0502353276421</v>
+        <v>863.6545912985332</v>
       </c>
       <c r="D46" t="n">
-        <v>666.1722425291648</v>
+        <v>697.7765985000559</v>
       </c>
       <c r="E46" t="n">
-        <v>496.4142387799021</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7831,25 +7831,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2451.623182457406</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U46" t="n">
-        <v>2173.190181710511</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V46" t="n">
-        <v>1886.234673580942</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W46" t="n">
-        <v>1614.208269167233</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.816514500646</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.396843814755</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.47818213854828</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>234.8975378705244</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314078</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706632</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,25 +8532,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,16 +8617,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>415.9850888296517</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790752</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,10 +9173,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O17" t="n">
-        <v>860.0355415814561</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,13 +9407,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>860.0355415814543</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9887,16 +9887,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10367,10 +10367,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11297,28 +11297,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>268.0111327346203</v>
+        <v>268.0111327346216</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3.146865729424462</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627266</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>268.011132734621</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>268.0111327346215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>139.5921776627251</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>268.0111327346207</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>268.0111327346211</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627267</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>268.0111327346216</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>185.1957776566213</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.146865729424576</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627259</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>102.9863699957345</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>29.11146680044084</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>74.15349933190375</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>2.446659489829083</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>139.5921776627258</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>81.78272691405284</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>222.8531101735153</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>122.9308428424051</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>144.1344859240867</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.48338453116315</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>55.87832135360772</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>634965.8576600234</v>
+        <v>640797.4167510357</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>634965.8576600234</v>
+        <v>642448.7588946238</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>636053.5405291438</v>
+        <v>642448.7588946238</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>620036.5887258666</v>
+        <v>620036.5887258665</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>620036.5887258665</v>
+        <v>620036.5887258666</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620036.5887258664</v>
+        <v>620036.5887258665</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>646202.8412970854</v>
+        <v>646202.8412970853</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>646202.8412970854</v>
+        <v>646202.8412970853</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321688.391934245</v>
+        <v>321688.3919342451</v>
       </c>
       <c r="C2" t="n">
         <v>321688.391934245</v>
       </c>
       <c r="D2" t="n">
-        <v>321688.391934245</v>
+        <v>321688.3919342451</v>
       </c>
       <c r="E2" t="n">
-        <v>303314.3387830059</v>
+        <v>303314.3387830058</v>
       </c>
       <c r="F2" t="n">
         <v>303314.3387830058</v>
       </c>
       <c r="G2" t="n">
-        <v>303314.3387830057</v>
+        <v>303314.3387830058</v>
       </c>
       <c r="H2" t="n">
         <v>303314.3387830058</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039029</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390668</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520279</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283958</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784516</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509506</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104681</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>150016.3828485737</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>180561.1778449373</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
         <v>39457.78817960744</v>
       </c>
       <c r="F4" t="n">
-        <v>39457.78817960745</v>
+        <v>39457.78817960744</v>
       </c>
       <c r="G4" t="n">
         <v>39457.78817960744</v>
       </c>
       <c r="H4" t="n">
-        <v>39457.78817960743</v>
+        <v>39457.78817960744</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26442,7 +26442,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="L4" t="n">
         <v>41122.95192991271</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814192</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484696</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
         <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,7 +26500,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67492.22991850052</v>
+        <v>-104989.3836763735</v>
       </c>
       <c r="C6" t="n">
-        <v>74699.07074120938</v>
+        <v>90751.5757596761</v>
       </c>
       <c r="D6" t="n">
-        <v>68571.13646883593</v>
+        <v>108092.1201335829</v>
       </c>
       <c r="E6" t="n">
-        <v>-33462.08542627696</v>
+        <v>28525.5745608396</v>
       </c>
       <c r="F6" t="n">
-        <v>190337.2083257508</v>
+        <v>190260.649770954</v>
       </c>
       <c r="G6" t="n">
-        <v>190337.2083257508</v>
+        <v>190260.6497709541</v>
       </c>
       <c r="H6" t="n">
-        <v>190337.2083257508</v>
+        <v>190260.649770954</v>
       </c>
       <c r="I6" t="n">
-        <v>178908.6443138664</v>
+        <v>178885.4199744839</v>
       </c>
       <c r="J6" t="n">
-        <v>86258.89460171582</v>
+        <v>36642.30612171011</v>
       </c>
       <c r="K6" t="n">
-        <v>197273.359946706</v>
+        <v>183436.1270394782</v>
       </c>
       <c r="L6" t="n">
-        <v>188325.7488581965</v>
+        <v>197250.1356073234</v>
       </c>
       <c r="M6" t="n">
-        <v>10482.37333623794</v>
+        <v>62260.19099431994</v>
       </c>
       <c r="N6" t="n">
-        <v>197273.3599467061</v>
+        <v>197250.1356073235</v>
       </c>
       <c r="O6" t="n">
-        <v>197273.3599467061</v>
+        <v>197250.1356073234</v>
       </c>
       <c r="P6" t="n">
-        <v>197273.3599467061</v>
+        <v>197250.1356073235</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26805,7 +26805,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052269</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080592</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052269</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825318</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052269</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>320.2961910953131</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>147.1950983865029</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>13.074252121104</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27591,13 +27591,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>30.08214347541551</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>372.3838731896473</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>62.84770413410843</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>84.63380825304888</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>215.1582315725556</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>376.9412962135282</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>253.8775775763889</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.8371307153959</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>117.7661826744371</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,7 +34778,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.47818213854828</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>234.8975378705244</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314078</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2128107706632</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>446.7260637956007</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>415.9850888296517</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790752</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35893,10 +35893,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O17" t="n">
-        <v>860.0355415814561</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36127,22 +36127,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>860.0355415814543</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697549</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37087,10 +37087,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -38017,28 +38017,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
